--- a/backend/uploads/file_nilai/nilai_EE0101-19_Kalkulus I_A_Tahun_2016.xlsx
+++ b/backend/uploads/file_nilai/nilai_EE0101-19_Kalkulus I_A_Tahun_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adip2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C5A7A5-F66E-4442-B943-4F9C3CEB3EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE251162-607B-450C-872B-39060E4561F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -735,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,19 +933,16 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -950,14 +955,20 @@
       <c r="C16" t="s">
         <v>29</v>
       </c>
+      <c r="D16">
+        <v>67</v>
+      </c>
+      <c r="E16">
+        <v>72</v>
+      </c>
       <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="G16">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -968,16 +979,19 @@
         <v>31</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F17">
+        <v>86</v>
+      </c>
+      <c r="G17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -988,16 +1002,19 @@
         <v>33</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+      <c r="F18">
+        <v>67</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1007,14 +1024,20 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
+      <c r="D19">
+        <v>89</v>
+      </c>
       <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F19">
+        <v>85</v>
+      </c>
+      <c r="G19">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1025,13 +1048,19 @@
         <v>37</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="E20">
+        <v>69</v>
+      </c>
+      <c r="F20">
+        <v>91</v>
+      </c>
+      <c r="G20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -1041,17 +1070,20 @@
       <c r="C21" t="s">
         <v>39</v>
       </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>78</v>
+      </c>
       <c r="F21">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1061,20 +1093,20 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
+      <c r="D22">
+        <v>91</v>
+      </c>
       <c r="E22">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -1084,20 +1116,20 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
+      <c r="D23">
+        <v>63</v>
+      </c>
       <c r="E23">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1108,13 +1140,19 @@
         <v>45</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E24">
+        <v>67</v>
+      </c>
+      <c r="F24">
+        <v>64</v>
+      </c>
+      <c r="G24">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -1124,11 +1162,20 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>85</v>
+      </c>
+      <c r="E25">
+        <v>91</v>
+      </c>
+      <c r="F25">
+        <v>71</v>
+      </c>
+      <c r="G25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -1138,17 +1185,20 @@
       <c r="C26" t="s">
         <v>49</v>
       </c>
+      <c r="D26">
+        <v>91</v>
+      </c>
       <c r="E26">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="G26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
@@ -1159,22 +1209,19 @@
         <v>51</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14</v>
       </c>
@@ -1184,11 +1231,20 @@
       <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>86</v>
+      </c>
+      <c r="E28">
+        <v>77</v>
+      </c>
+      <c r="F28">
+        <v>93</v>
+      </c>
+      <c r="G28">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>15</v>
       </c>
@@ -1198,11 +1254,20 @@
       <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>72</v>
+      </c>
+      <c r="F29">
+        <v>71</v>
+      </c>
+      <c r="G29">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>16</v>
       </c>
@@ -1212,11 +1277,20 @@
       <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>81</v>
+      </c>
+      <c r="F30">
+        <v>86</v>
+      </c>
+      <c r="G30">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>17</v>
       </c>
@@ -1226,11 +1300,20 @@
       <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="H31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>94</v>
+      </c>
+      <c r="E31">
+        <v>63</v>
+      </c>
+      <c r="F31">
+        <v>98</v>
+      </c>
+      <c r="G31">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>18</v>
       </c>
@@ -1240,11 +1323,20 @@
       <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>99</v>
+      </c>
+      <c r="E32">
+        <v>67</v>
+      </c>
+      <c r="F32">
+        <v>97</v>
+      </c>
+      <c r="G32">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19</v>
       </c>
@@ -1254,11 +1346,20 @@
       <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="H33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>85</v>
+      </c>
+      <c r="E33">
+        <v>80</v>
+      </c>
+      <c r="F33">
+        <v>66</v>
+      </c>
+      <c r="G33">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
@@ -1269,19 +1370,19 @@
         <v>65</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G34">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>21</v>
       </c>
@@ -1291,11 +1392,20 @@
       <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="H35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>60</v>
+      </c>
+      <c r="E35">
+        <v>64</v>
+      </c>
+      <c r="F35">
+        <v>72</v>
+      </c>
+      <c r="G35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>22</v>
       </c>
@@ -1305,11 +1415,20 @@
       <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="H36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>83</v>
+      </c>
+      <c r="E36">
+        <v>95</v>
+      </c>
+      <c r="F36">
+        <v>90</v>
+      </c>
+      <c r="G36">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>23</v>
       </c>
@@ -1319,11 +1438,20 @@
       <c r="C37" t="s">
         <v>71</v>
       </c>
-      <c r="H37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>88</v>
+      </c>
+      <c r="E37">
+        <v>99</v>
+      </c>
+      <c r="F37">
+        <v>91</v>
+      </c>
+      <c r="G37">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>24</v>
       </c>
@@ -1333,11 +1461,20 @@
       <c r="C38" t="s">
         <v>73</v>
       </c>
-      <c r="H38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>89</v>
+      </c>
+      <c r="E38">
+        <v>96</v>
+      </c>
+      <c r="F38">
+        <v>99</v>
+      </c>
+      <c r="G38">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>25</v>
       </c>
@@ -1347,8 +1484,17 @@
       <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="H39">
-        <v>5</v>
+      <c r="D39">
+        <v>73</v>
+      </c>
+      <c r="E39">
+        <v>70</v>
+      </c>
+      <c r="F39">
+        <v>98</v>
+      </c>
+      <c r="G39">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/file_nilai/nilai_EE0101-19_Kalkulus I_A_Tahun_2016.xlsx
+++ b/backend/uploads/file_nilai/nilai_EE0101-19_Kalkulus I_A_Tahun_2016.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adip2\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6032A585-A230-46DE-A8E1-9C485EF4B776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -62,7 +67,7 @@
     <t>Pengampu</t>
   </si>
   <si>
-    <t>Dr.Ir. Augustinus Sujono M.T.</t>
+    <t>Sutrisno S.T., M.Sc, Ph.D.</t>
   </si>
   <si>
     <t>gtYKXjf4z6fctHd/vrKLoQ==</t>
@@ -90,6 +95,9 @@
   </si>
   <si>
     <t>CPMK4</t>
+  </si>
+  <si>
+    <t>CPMK5</t>
   </si>
   <si>
     <t>I0715021</t>
@@ -263,32 +271,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -299,10 +296,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -342,7 +336,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -356,27 +356,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -386,65 +393,74 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="7" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -734,29 +750,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:H42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="C5" sqref="C5:H5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17.42578125" customWidth="true" style="0"/>
-    <col min="3" max="3" width="29.85546875" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.28515625" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.28515625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8.28515625" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8.28515625" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -768,7 +779,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -781,7 +792,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -794,7 +805,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -807,7 +818,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -820,7 +831,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
@@ -833,7 +844,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -846,7 +857,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -859,7 +870,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -872,7 +883,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
@@ -883,7 +894,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -901,7 +912,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
@@ -917,319 +928,741 @@
       <c r="G14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>90</v>
+      </c>
+      <c r="E17">
+        <v>80</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+      <c r="G17">
+        <v>60</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>90</v>
+      </c>
+      <c r="E18">
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>90</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>70</v>
+      </c>
+      <c r="G19">
+        <v>60</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <v>80</v>
+      </c>
+      <c r="F20">
+        <v>70</v>
+      </c>
+      <c r="G20">
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>90</v>
+      </c>
+      <c r="E21">
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>60</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>80</v>
+      </c>
+      <c r="F22">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>60</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <v>80</v>
+      </c>
+      <c r="F23">
+        <v>70</v>
+      </c>
+      <c r="G23">
+        <v>60</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>90</v>
+      </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <v>70</v>
+      </c>
+      <c r="G24">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="D25">
+        <v>90</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="F25">
+        <v>70</v>
+      </c>
+      <c r="G25">
+        <v>60</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>90</v>
+      </c>
+      <c r="E26">
+        <v>80</v>
+      </c>
+      <c r="F26">
+        <v>70</v>
+      </c>
+      <c r="G26">
+        <v>60</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
+      </c>
+      <c r="E27">
+        <v>80</v>
+      </c>
+      <c r="F27">
+        <v>70</v>
+      </c>
+      <c r="G27">
+        <v>60</v>
+      </c>
+      <c r="H27">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>90</v>
+      </c>
+      <c r="E28">
+        <v>80</v>
+      </c>
+      <c r="F28">
+        <v>70</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>90</v>
+      </c>
+      <c r="E29">
+        <v>80</v>
+      </c>
+      <c r="F29">
+        <v>70</v>
+      </c>
+      <c r="G29">
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>40</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="D37">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="D39">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="15">
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A13:A14"/>
@@ -1246,16 +1679,7 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:H12"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>